--- a/OrangeHRM.xlsx
+++ b/OrangeHRM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project(OrangeHRM)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21BF3847-3F62-4B16-BE20-6DB3BB5E871D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C3318D7-2F2D-41A7-90D7-0FED526FB5ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13695" activeTab="4" xr2:uid="{2AAC2122-E321-4F4D-BAE7-FB6147648A46}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="122">
   <si>
     <t>Project Name: OrangeHRM</t>
   </si>
@@ -464,9 +464,29 @@
 4.Click on "Save" button.</t>
   </si>
   <si>
-    <t>The system should successfully add the new user and display the new user in the user list.
-A confirmation message such as "Success: User has been added" should appear.
-The newly added user should be visible in the "System Users" list with the correct details (username, role, and status).</t>
+    <t>TC-303</t>
+  </si>
+  <si>
+    <t>To validate the functionality of "Search" users.</t>
+  </si>
+  <si>
+    <t>1.Navigate to the Admin page.
+2.Enter the details of the users in the given fields
+3.Click on "Search" button.</t>
+  </si>
+  <si>
+    <t>1.The system should successfully add the new user and display the new user in the user list.
+2.A confirmation message such as "Success: User has been added" should appear.
+3.The newly added user should be visible in the "System Users" list with the correct details (username, role, and status).</t>
+  </si>
+  <si>
+    <t>The system should successfully shows the user if exist in the record.</t>
+  </si>
+  <si>
+    <t>TC-304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To validate the functionality of "Reset" in the "Search" </t>
   </si>
 </sst>
 </file>
@@ -1662,10 +1682,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C22D3753-2146-4875-B4FC-C8212767C213}">
-  <dimension ref="A5:I8"/>
+  <dimension ref="A5:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1755,14 +1775,69 @@
         <v>88</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="6" t="s">
         <v>47</v>
       </c>
     </row>
+    <row r="10" spans="1:9" s="6" customFormat="1" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A10" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="I10" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="6" customFormat="1" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A12" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="H12" s="5"/>
+      <c r="I12" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/OrangeHRM.xlsx
+++ b/OrangeHRM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project(OrangeHRM)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C3318D7-2F2D-41A7-90D7-0FED526FB5ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79512821-5446-4BF5-9873-C0605D4FF2D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13695" activeTab="4" xr2:uid="{2AAC2122-E321-4F4D-BAE7-FB6147648A46}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="130">
   <si>
     <t>Project Name: OrangeHRM</t>
   </si>
@@ -487,6 +487,40 @@
   </si>
   <si>
     <t xml:space="preserve">To validate the functionality of "Reset" in the "Search" </t>
+  </si>
+  <si>
+    <t>To validate the functionality of 
+deleting Users from the record found</t>
+  </si>
+  <si>
+    <t>The system should successfully delete that user from the Record Found list</t>
+  </si>
+  <si>
+    <t>1.Navigate to the Admin page.
+2.Look at the Record Found Section
+3.Click on Detele icon.
+4.Click on "Yes,Delete" option.</t>
+  </si>
+  <si>
+    <t>To validate the functionality of 
+adding users to the Job Title</t>
+  </si>
+  <si>
+    <t>1.Navigate to the Admin page.
+2.Click on Job
+3.Click on Job Title.
+4.Click on "Add" option.
+5.Fill all the required fields.
+6.Click on Save.</t>
+  </si>
+  <si>
+    <t>The system should successfully add the user to the Record found list.</t>
+  </si>
+  <si>
+    <t>TC-305</t>
+  </si>
+  <si>
+    <t>TC-306</t>
   </si>
 </sst>
 </file>
@@ -524,12 +558,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -559,7 +599,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -584,6 +624,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1682,10 +1728,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C22D3753-2146-4875-B4FC-C8212767C213}">
-  <dimension ref="A5:I12"/>
+  <dimension ref="A5:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1836,6 +1882,52 @@
         <v>47</v>
       </c>
     </row>
+    <row r="14" spans="1:9" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A14" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A16" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/OrangeHRM.xlsx
+++ b/OrangeHRM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project(OrangeHRM)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79512821-5446-4BF5-9873-C0605D4FF2D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F97B9AA4-A706-49C3-BE78-BC84722717FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13695" activeTab="4" xr2:uid="{2AAC2122-E321-4F4D-BAE7-FB6147648A46}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13695" activeTab="1" xr2:uid="{2AAC2122-E321-4F4D-BAE7-FB6147648A46}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Details" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="Login" sheetId="4" r:id="rId3"/>
     <sheet name="Forget your password" sheetId="5" r:id="rId4"/>
     <sheet name="Admin" sheetId="6" r:id="rId5"/>
+    <sheet name="PIM" sheetId="7" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="158">
   <si>
     <t>Project Name: OrangeHRM</t>
   </si>
@@ -521,6 +523,119 @@
   </si>
   <si>
     <t>TC-306</t>
+  </si>
+  <si>
+    <t>TC-307</t>
+  </si>
+  <si>
+    <t>To validate the functionality of 
+adding users to the Pay Grades</t>
+  </si>
+  <si>
+    <t>1.Navigate to the Admin page.
+2.Click on Job
+3.Click on Pay Grade
+4.Click on "Add" option.
+5.Fill all the required fields.
+6.Click on Save.</t>
+  </si>
+  <si>
+    <t>TC-401</t>
+  </si>
+  <si>
+    <t>TC - 004
+(PIM)</t>
+  </si>
+  <si>
+    <t>To Verify "PIM" page loads succesfully.</t>
+  </si>
+  <si>
+    <t>1.Open the OrangeHRM on any browser.
+2.Enter the valid username and password.
+3.Click on Login button
+4.Now,click on PIM from side bar section and check it navigated successfully to the admin page.</t>
+  </si>
+  <si>
+    <t>1.navigate the the Pim Page
+2.Click on Configuration .
+3.Click on Optional Field.
+4.Check all the fields</t>
+  </si>
+  <si>
+    <t>The user should successfully modify and 
+save the changes.</t>
+  </si>
+  <si>
+    <t>To Validate the configuration optional Fields option.</t>
+  </si>
+  <si>
+    <t>To Validate the configuration Custom Fields option.</t>
+  </si>
+  <si>
+    <t>1.navigate the the Pim Page
+2.Click on Configuration .
+3.Click on custom Fields.
+4.Check all the fields</t>
+  </si>
+  <si>
+    <t>TC-402</t>
+  </si>
+  <si>
+    <t>TC-403</t>
+  </si>
+  <si>
+    <t>To Validate the PIM Add Employee functionality.</t>
+  </si>
+  <si>
+    <t>1.navigate the the Pim Page
+2.Click on Add Employee.
+3.Enter the details and upload the profile picture
+4.Check on Save.</t>
+  </si>
+  <si>
+    <t>The Employee should be add successfully.</t>
+  </si>
+  <si>
+    <t>TC-404</t>
+  </si>
+  <si>
+    <t>It should show the employee from the record if exist.</t>
+  </si>
+  <si>
+    <t>TC-405</t>
+  </si>
+  <si>
+    <t>To Validate the PIM Employee List functionality by searching the employee with name.</t>
+  </si>
+  <si>
+    <t>1.navigate the the Pim Page
+2.Click on Employee List.
+3.Enter the name of the employee 
+4.Click on Search.</t>
+  </si>
+  <si>
+    <t>TC-406</t>
+  </si>
+  <si>
+    <t>To Validate the PIM Employee List functionality by searching the employee with id.</t>
+  </si>
+  <si>
+    <t>1.navigate the the Pim Page
+2.Click on Employee List.
+3.Enter the id of the employee 
+4.Click on Search.</t>
+  </si>
+  <si>
+    <t>TC-407</t>
+  </si>
+  <si>
+    <t>To Validate the PIM Report functionality by searching the employee report with Report Name.</t>
+  </si>
+  <si>
+    <t>1.navigate the the Pim Page
+2.Click on Report
+3.Enter the Name
+4.Click on Search.</t>
   </si>
 </sst>
 </file>
@@ -1055,8 +1170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ED8DCAA-2CAF-44A1-87D5-07AF4A80EBAB}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1213,7 +1328,7 @@
   <dimension ref="A5:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1531,7 +1646,7 @@
   <dimension ref="A5:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1728,10 +1843,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C22D3753-2146-4875-B4FC-C8212767C213}">
-  <dimension ref="A5:I16"/>
+  <dimension ref="A5:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1928,8 +2043,263 @@
         <v>127</v>
       </c>
     </row>
+    <row r="18" spans="1:7" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A18" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45012541-222E-4C84-86BC-F1612B7B2536}">
+  <dimension ref="A1:I14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="16.796875" customWidth="1"/>
+    <col min="2" max="2" width="27.265625" customWidth="1"/>
+    <col min="3" max="3" width="27" customWidth="1"/>
+    <col min="4" max="4" width="28.3984375" customWidth="1"/>
+    <col min="5" max="5" width="28.73046875" customWidth="1"/>
+    <col min="6" max="6" width="28" customWidth="1"/>
+    <col min="7" max="7" width="27.73046875" customWidth="1"/>
+    <col min="8" max="8" width="27.46484375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.45">
+      <c r="A1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="121.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="57" x14ac:dyDescent="0.45">
+      <c r="A4" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="57" x14ac:dyDescent="0.45">
+      <c r="A6" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A8" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="57" x14ac:dyDescent="0.45">
+      <c r="A10" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="57" x14ac:dyDescent="0.45">
+      <c r="A12" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="57" x14ac:dyDescent="0.45">
+      <c r="A14" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7CE978D-1A2B-4C43-A831-348178DD45E7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/OrangeHRM.xlsx
+++ b/OrangeHRM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project(OrangeHRM)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F97B9AA4-A706-49C3-BE78-BC84722717FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD127D2C-E785-4C8A-93AB-FE7054085933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13695" activeTab="1" xr2:uid="{2AAC2122-E321-4F4D-BAE7-FB6147648A46}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13695" activeTab="6" xr2:uid="{2AAC2122-E321-4F4D-BAE7-FB6147648A46}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Details" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Forget your password" sheetId="5" r:id="rId4"/>
     <sheet name="Admin" sheetId="6" r:id="rId5"/>
     <sheet name="PIM" sheetId="7" r:id="rId6"/>
-    <sheet name="Sheet2" sheetId="8" r:id="rId7"/>
+    <sheet name="Leave" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="165">
   <si>
     <t>Project Name: OrangeHRM</t>
   </si>
@@ -636,6 +636,34 @@
 2.Click on Report
 3.Enter the Name
 4.Click on Search.</t>
+  </si>
+  <si>
+    <t>TC-501</t>
+  </si>
+  <si>
+    <t>TC - 005
+(Leave)</t>
+  </si>
+  <si>
+    <t>To Verify "Leave" page loads succesfully.</t>
+  </si>
+  <si>
+    <t>1.Open the OrangeHRM on any browser.
+2.Enter the valid username and password.
+3.Click on Login button
+4.Now,click on "Leave" from side bar section and check it navigated successfully to the admin page.</t>
+  </si>
+  <si>
+    <t>The user successfully navigated to Leave page.</t>
+  </si>
+  <si>
+    <t>To Verify the functionality of Leave List</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.navigate the the Leave Page
+2.Enter all the details
+3.Click on Search.
+</t>
   </si>
 </sst>
 </file>
@@ -1170,7 +1198,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ED8DCAA-2CAF-44A1-87D5-07AF4A80EBAB}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -2077,7 +2105,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2294,12 +2322,102 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7CE978D-1A2B-4C43-A831-348178DD45E7}">
-  <dimension ref="A1"/>
+  <dimension ref="A3:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="27.59765625" customWidth="1"/>
+    <col min="3" max="3" width="27.3984375" customWidth="1"/>
+    <col min="4" max="4" width="27.6640625" customWidth="1"/>
+    <col min="5" max="5" width="27.53125" customWidth="1"/>
+    <col min="6" max="6" width="27.19921875" customWidth="1"/>
+    <col min="7" max="7" width="27.33203125" customWidth="1"/>
+    <col min="8" max="8" width="30.19921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.45">
+      <c r="A3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="121.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A6" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/OrangeHRM.xlsx
+++ b/OrangeHRM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project(OrangeHRM)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD127D2C-E785-4C8A-93AB-FE7054085933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{325AA378-0183-4628-806B-D5304475AD26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13695" activeTab="6" xr2:uid="{2AAC2122-E321-4F4D-BAE7-FB6147648A46}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13695" activeTab="2" xr2:uid="{2AAC2122-E321-4F4D-BAE7-FB6147648A46}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Details" sheetId="1" r:id="rId1"/>
@@ -762,17 +762,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1205,15 +1205,15 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
@@ -1355,8 +1355,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9112F0F3-DD16-4C01-9F9D-3B591B72BE84}">
   <dimension ref="A5:I22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="C21" workbookViewId="0">
+      <selection activeCell="E28" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1873,7 +1873,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C22D3753-2146-4875-B4FC-C8212767C213}">
   <dimension ref="A5:I18"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -2026,13 +2026,13 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="10" t="s">
         <v>128</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="9" t="s">
         <v>122</v>
       </c>
       <c r="D14" s="5" t="s">
@@ -2049,13 +2049,13 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="85.5" x14ac:dyDescent="0.45">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="10" t="s">
         <v>129</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="9" t="s">
         <v>125</v>
       </c>
       <c r="D16" s="5" t="s">
@@ -2078,7 +2078,7 @@
       <c r="B18" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="9" t="s">
         <v>131</v>
       </c>
       <c r="D18" s="5" t="s">
@@ -2195,12 +2195,12 @@
       <c r="F4" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="9" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="57" x14ac:dyDescent="0.45">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="10" t="s">
         <v>143</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -2218,7 +2218,7 @@
       <c r="F6" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="9" t="s">
         <v>138</v>
       </c>
     </row>
@@ -2241,7 +2241,7 @@
       <c r="F8" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="9" t="s">
         <v>146</v>
       </c>
     </row>
@@ -2292,7 +2292,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="57" x14ac:dyDescent="0.45">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="10" t="s">
         <v>155</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -2324,7 +2324,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7CE978D-1A2B-4C43-A831-348178DD45E7}">
   <dimension ref="A3:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
